--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ntf3-Ntrk1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ntf3-Ntrk1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,9 +83,6 @@
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
   <si>
     <t>Ntf3</t>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -537,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.9319015</v>
+        <v>7.1450045</v>
       </c>
       <c r="H2">
-        <v>7.863803000000001</v>
+        <v>14.290009</v>
       </c>
       <c r="I2">
-        <v>0.3815166189484025</v>
+        <v>0.8119737125238713</v>
       </c>
       <c r="J2">
-        <v>0.3260182739810296</v>
+        <v>0.7990590344890214</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.138402</v>
+        <v>0.0003185</v>
       </c>
       <c r="N2">
-        <v>0.415206</v>
+        <v>0.000637</v>
       </c>
       <c r="O2">
-        <v>0.6577057142110379</v>
+        <v>0.001593934541086978</v>
       </c>
       <c r="P2">
-        <v>0.7424137037003925</v>
+        <v>0.001183922444716212</v>
       </c>
       <c r="Q2">
-        <v>0.5441830314030001</v>
+        <v>0.00227568393325</v>
       </c>
       <c r="R2">
-        <v>3.265098188418</v>
+        <v>0.009102735733</v>
       </c>
       <c r="S2">
-        <v>0.2509256603488395</v>
+        <v>0.001294232946846427</v>
       </c>
       <c r="T2">
-        <v>0.2420404342602655</v>
+        <v>0.0009460239255848181</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,13 +581,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -599,108 +596,108 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.9319015</v>
+        <v>7.1450045</v>
       </c>
       <c r="H3">
-        <v>7.863803000000001</v>
+        <v>14.290009</v>
       </c>
       <c r="I3">
-        <v>0.3815166189484025</v>
+        <v>0.8119737125238713</v>
       </c>
       <c r="J3">
-        <v>0.3260182739810296</v>
+        <v>0.7990590344890214</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.0720295</v>
+        <v>0.138402</v>
       </c>
       <c r="N3">
-        <v>0.144059</v>
+        <v>0.415206</v>
       </c>
       <c r="O3">
-        <v>0.3422942857889622</v>
+        <v>0.6926333700330297</v>
       </c>
       <c r="P3">
-        <v>0.2575862962996076</v>
+        <v>0.7716981202210981</v>
       </c>
       <c r="Q3">
-        <v>0.28321289909425</v>
+        <v>0.988882912809</v>
       </c>
       <c r="R3">
-        <v>1.132851596377</v>
+        <v>5.933297476853999</v>
       </c>
       <c r="S3">
-        <v>0.1305909585995631</v>
+        <v>0.5624000888836395</v>
       </c>
       <c r="T3">
-        <v>0.08397783972076411</v>
+        <v>0.6166323548608633</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.2844430000000001</v>
+        <v>7.1450045</v>
       </c>
       <c r="H4">
-        <v>0.8533290000000001</v>
+        <v>14.290009</v>
       </c>
       <c r="I4">
-        <v>0.02759980931453661</v>
+        <v>0.8119737125238713</v>
       </c>
       <c r="J4">
-        <v>0.03537739281082677</v>
+        <v>0.7990590344890214</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M4">
-        <v>0.138402</v>
+        <v>0.0610995</v>
       </c>
       <c r="N4">
-        <v>0.415206</v>
+        <v>0.122199</v>
       </c>
       <c r="O4">
-        <v>0.6577057142110379</v>
+        <v>0.3057726954258833</v>
       </c>
       <c r="P4">
-        <v>0.7424137037003925</v>
+        <v>0.2271179573341859</v>
       </c>
       <c r="Q4">
-        <v>0.03936748008600001</v>
+        <v>0.43655620244775</v>
       </c>
       <c r="R4">
-        <v>0.354307320774</v>
+        <v>1.746224809791</v>
       </c>
       <c r="S4">
-        <v>0.01815255229730576</v>
+        <v>0.2482793906933854</v>
       </c>
       <c r="T4">
-        <v>0.02626466122394954</v>
+        <v>0.1814806557025733</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,13 +705,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -723,16 +720,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.2844430000000001</v>
+        <v>0.284443</v>
       </c>
       <c r="H5">
-        <v>0.8533290000000001</v>
+        <v>0.853329</v>
       </c>
       <c r="I5">
-        <v>0.02759980931453661</v>
+        <v>0.0323247156403369</v>
       </c>
       <c r="J5">
-        <v>0.03537739281082677</v>
+        <v>0.04771587245616726</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,60 +738,60 @@
         <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.0720295</v>
+        <v>0.0003185</v>
       </c>
       <c r="N5">
-        <v>0.144059</v>
+        <v>0.000637</v>
       </c>
       <c r="O5">
-        <v>0.3422942857889622</v>
+        <v>0.001593934541086978</v>
       </c>
       <c r="P5">
-        <v>0.2575862962996076</v>
+        <v>0.001183922444716212</v>
       </c>
       <c r="Q5">
-        <v>0.0204882870685</v>
+        <v>9.059509549999999E-05</v>
       </c>
       <c r="R5">
-        <v>0.122929722411</v>
+        <v>0.0005435705729999999</v>
       </c>
       <c r="S5">
-        <v>0.009447257017230854</v>
+        <v>5.152348078994746E-05</v>
       </c>
       <c r="T5">
-        <v>0.00911273158687723</v>
+        <v>5.64918923700725E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>2.8652865</v>
+        <v>0.284443</v>
       </c>
       <c r="H6">
-        <v>5.730573</v>
+        <v>0.853329</v>
       </c>
       <c r="I6">
-        <v>0.2780218217059867</v>
+        <v>0.0323247156403369</v>
       </c>
       <c r="J6">
-        <v>0.2375786268275401</v>
+        <v>0.04771587245616726</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -809,54 +806,54 @@
         <v>0.415206</v>
       </c>
       <c r="O6">
-        <v>0.6577057142110379</v>
+        <v>0.6926333700330297</v>
       </c>
       <c r="P6">
-        <v>0.7424137037003925</v>
+        <v>0.7716981202210981</v>
       </c>
       <c r="Q6">
-        <v>0.396561382173</v>
+        <v>0.039367480086</v>
       </c>
       <c r="R6">
-        <v>2.379368293038</v>
+        <v>0.354307320774</v>
       </c>
       <c r="S6">
-        <v>0.1828565408113898</v>
+        <v>0.02238917672932593</v>
       </c>
       <c r="T6">
-        <v>0.1763816282630875</v>
+        <v>0.03682224907913394</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>2.8652865</v>
+        <v>0.284443</v>
       </c>
       <c r="H7">
-        <v>5.730573</v>
+        <v>0.853329</v>
       </c>
       <c r="I7">
-        <v>0.2780218217059867</v>
+        <v>0.0323247156403369</v>
       </c>
       <c r="J7">
-        <v>0.2375786268275401</v>
+        <v>0.04771587245616726</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -865,152 +862,214 @@
         <v>0.5</v>
       </c>
       <c r="M7">
-        <v>0.0720295</v>
+        <v>0.0610995</v>
       </c>
       <c r="N7">
-        <v>0.144059</v>
+        <v>0.122199</v>
       </c>
       <c r="O7">
-        <v>0.3422942857889622</v>
+        <v>0.3057726954258833</v>
       </c>
       <c r="P7">
-        <v>0.2575862962996076</v>
+        <v>0.2271179573341859</v>
       </c>
       <c r="Q7">
-        <v>0.20638515395175</v>
+        <v>0.0173793250785</v>
       </c>
       <c r="R7">
-        <v>0.8255406158069999</v>
+        <v>0.104275950471</v>
       </c>
       <c r="S7">
-        <v>0.09516528089459692</v>
+        <v>0.009884015430221021</v>
       </c>
       <c r="T7">
-        <v>0.06119699856445263</v>
+        <v>0.01083713148466325</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.224346</v>
+        <v>1.370104</v>
       </c>
       <c r="H8">
-        <v>9.673038</v>
+        <v>2.740208</v>
       </c>
       <c r="I8">
-        <v>0.3128617500310742</v>
+        <v>0.1557015718357919</v>
       </c>
       <c r="J8">
-        <v>0.4010257063806036</v>
+        <v>0.1532250930548114</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>0.138402</v>
+        <v>0.0003185</v>
       </c>
       <c r="N8">
-        <v>0.415206</v>
+        <v>0.000637</v>
       </c>
       <c r="O8">
-        <v>0.6577057142110379</v>
+        <v>0.001593934541086978</v>
       </c>
       <c r="P8">
-        <v>0.7424137037003925</v>
+        <v>0.001183922444716212</v>
       </c>
       <c r="Q8">
-        <v>0.446255935092</v>
+        <v>0.000436378124</v>
       </c>
       <c r="R8">
-        <v>4.016303415827999</v>
+        <v>0.001745512496</v>
       </c>
       <c r="S8">
-        <v>0.2057709607535028</v>
+        <v>0.000248178113450604</v>
       </c>
       <c r="T8">
-        <v>0.2977269799530901</v>
+        <v>0.0001814066267613214</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
       <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.370104</v>
+      </c>
+      <c r="H9">
+        <v>2.740208</v>
+      </c>
+      <c r="I9">
+        <v>0.1557015718357919</v>
+      </c>
+      <c r="J9">
+        <v>0.1532250930548114</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.138402</v>
+      </c>
+      <c r="N9">
+        <v>0.415206</v>
+      </c>
+      <c r="O9">
+        <v>0.6926333700330297</v>
+      </c>
+      <c r="P9">
+        <v>0.7716981202210981</v>
+      </c>
+      <c r="Q9">
+        <v>0.189625133808</v>
+      </c>
+      <c r="R9">
+        <v>1.137750802848</v>
+      </c>
+      <c r="S9">
+        <v>0.1078441044200644</v>
+      </c>
+      <c r="T9">
+        <v>0.1182435162811008</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>3.224346</v>
-      </c>
-      <c r="H9">
-        <v>9.673038</v>
-      </c>
-      <c r="I9">
-        <v>0.3128617500310742</v>
-      </c>
-      <c r="J9">
-        <v>0.4010257063806036</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.370104</v>
+      </c>
+      <c r="H10">
+        <v>2.740208</v>
+      </c>
+      <c r="I10">
+        <v>0.1557015718357919</v>
+      </c>
+      <c r="J10">
+        <v>0.1532250930548114</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
         <v>0.5</v>
       </c>
-      <c r="M9">
-        <v>0.0720295</v>
-      </c>
-      <c r="N9">
-        <v>0.144059</v>
-      </c>
-      <c r="O9">
-        <v>0.3422942857889622</v>
-      </c>
-      <c r="P9">
-        <v>0.2575862962996076</v>
-      </c>
-      <c r="Q9">
-        <v>0.232248030207</v>
-      </c>
-      <c r="R9">
-        <v>1.393488181242</v>
-      </c>
-      <c r="S9">
-        <v>0.1070907892775714</v>
-      </c>
-      <c r="T9">
-        <v>0.1032987264275136</v>
+      <c r="M10">
+        <v>0.0610995</v>
+      </c>
+      <c r="N10">
+        <v>0.122199</v>
+      </c>
+      <c r="O10">
+        <v>0.3057726954258833</v>
+      </c>
+      <c r="P10">
+        <v>0.2271179573341859</v>
+      </c>
+      <c r="Q10">
+        <v>0.08371266934800001</v>
+      </c>
+      <c r="R10">
+        <v>0.334850677392</v>
+      </c>
+      <c r="S10">
+        <v>0.04760928930227688</v>
+      </c>
+      <c r="T10">
+        <v>0.03480017014694931</v>
       </c>
     </row>
   </sheetData>
